--- a/formularios_tecnicos/registros_formulario.xlsx
+++ b/formularios_tecnicos/registros_formulario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,10 +655,8 @@
           <t>2025-10-28 12:54:34</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23087278</t>
-        </is>
+      <c r="B5" t="n">
+        <v>23087278</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -699,6 +697,114 @@
         <v>71603529</v>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>Formulario</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-28 13:24:32</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23153422</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ejecutado en Campo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23153422_1_20251028_132432.pdf</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sin imágenes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>LIZANA PATRICIA BEDOYA MEJIA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CR 1 ESTE CL 47 C -18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>VENCIDO</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1035861667</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Formulario</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-28 13:39:07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23308435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>descarte 440</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Descartado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23308435_1_20251028_133907.pdf</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sin imágenes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>JESUS AMADO JIMENEZ SUCERQUIA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CR 21 CL 56 BD -5 (INTERIOR 201 )</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>VENCIDO</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>71263185</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Formulario</t>
         </is>
